--- a/out/img/core/BR_50_forecast_results_2023.xlsx
+++ b/out/img/core/BR_50_forecast_results_2023.xlsx
@@ -476,11 +476,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1196</v>
+        <v>46</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1466,00</t>
+          <t>1466,006393,006358,005166,003024,006261,003991,00367,005620,0011,0077935,00766,00122,001390,005710,006795,005993,004826,009825,003356,00546,003538,003,0071074,00773,0092,00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -496,11 +496,11 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>702</v>
+        <v>27</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1499,00</t>
+          <t>1499,005855,005591,004326,003353,006929,004958,00749,006599,0043,0056892,00734,00129,001502,004888,006501,006966,005336,0010769,003572,00596,003539,007,0055589,00767,0091,00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -516,11 +516,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1118</v>
+        <v>43</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1778,00</t>
+          <t>1778,006873,006403,005877,003588,008540,006182,00418,009218,0013,0055647,00883,00153,001745,005727,007884,008645,006858,0013235,004185,00607,003858,006,0055032,00868,00115,00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -536,11 +536,11 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1040</v>
+        <v>40</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1874,00</t>
+          <t>1874,005928,005857,005466,002782,007270,005404,00370,008374,008,0062319,00895,00120,001889,005233,006839,007731,006046,0011603,003934,00689,003044,008,0061200,00959,00109,00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -556,11 +556,11 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>910</v>
+        <v>35</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1634,00</t>
+          <t>1634,006492,006320,005994,003011,007711,005705,00400,008251,003,0057445,00923,00172,001712,005736,007267,008153,006550,0012539,004172,00726,003579,002,0057813,00895,00129,00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -576,11 +576,11 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1144</v>
+        <v>44</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1714,00</t>
+          <t>1714,006232,006201,005803,003090,008315,005575,00352,007887,008,0060027,00929,00151,001697,005724,007483,008412,006533,0011454,004155,00648,003374,001,0059512,00962,00144,00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -596,11 +596,11 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1144</v>
+        <v>44</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3636,00</t>
+          <t>3636,006443,006458,006157,003321,009022,005318,00331,007509,004,0077838,001129,00165,003578,005799,007984,007902,006220,0012215,004689,00464,004393,005,0073861,001113,00187,00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1170</v>
+        <v>45</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1726,00</t>
+          <t>1726,006661,006534,006423,003760,0010222,006968,00361,0010017,004,0060426,00924,00108,001657,005858,008205,008715,007139,0013066,005120,00568,005005,002,0058592,00922,00136,00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -636,11 +636,11 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1456</v>
+        <v>56</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1709,00</t>
+          <t>1709,006155,006138,005756,003582,009415,006177,00270,009629,003,0061039,001013,00173,001639,005348,007373,007420,006400,0012390,005172,00320,005494,002,0059034,001171,00225,00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -656,11 +656,11 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1248</v>
+        <v>48</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1738,00</t>
+          <t>1738,005910,005901,005136,004099,009422,006348,00155,008489,001,0063458,001102,00321,001701,005368,007129,006382,005816,0012540,005745,00135,005815,002,0062097,001145,00307,00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -676,11 +676,11 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1326</v>
+        <v>51</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1655,00</t>
+          <t>1655,006280,006079,005182,003711,008094,005769,00141,007657,001,0059973,00639,00103,001623,005142,006762,006245,005484,0011305,004971,00153,005170,000,0059275,00647,00118,00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -696,11 +696,11 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1638</v>
+        <v>63</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1718,00</t>
+          <t>1718,006212,005893,004591,004098,007265,004243,00233,005757,002,0080296,001086,00534,001775,005125,006735,005266,004943,0010126,003810,00170,004019,001,0081754,00764,00111,00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -744,13 +744,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>233.4742447689019</v>
+        <v>9.090506824105454</v>
       </c>
       <c r="B2" t="n">
-        <v>21.39740998219727</v>
+        <v>20.07038752720918</v>
       </c>
       <c r="C2" t="n">
-        <v>282.2974184115507</v>
+        <v>11.7006570725832</v>
       </c>
     </row>
   </sheetData>

--- a/out/img/core/BR_50_forecast_results_2023.xlsx
+++ b/out/img/core/BR_50_forecast_results_2023.xlsx
@@ -478,10 +478,8 @@
       <c r="C2" t="n">
         <v>46</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1466,006393,006358,005166,003024,006261,003991,00367,005620,0011,0077935,00766,00122,001390,005710,006795,005993,004826,009825,003356,00546,003538,003,0071074,00773,0092,00</t>
-        </is>
+      <c r="D2" t="n">
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -498,10 +496,8 @@
       <c r="C3" t="n">
         <v>27</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1499,005855,005591,004326,003353,006929,004958,00749,006599,0043,0056892,00734,00129,001502,004888,006501,006966,005336,0010769,003572,00596,003539,007,0055589,00767,0091,00</t>
-        </is>
+      <c r="D3" t="n">
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -518,10 +514,8 @@
       <c r="C4" t="n">
         <v>43</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1778,006873,006403,005877,003588,008540,006182,00418,009218,0013,0055647,00883,00153,001745,005727,007884,008645,006858,0013235,004185,00607,003858,006,0055032,00868,00115,00</t>
-        </is>
+      <c r="D4" t="n">
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -538,10 +532,8 @@
       <c r="C5" t="n">
         <v>40</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1874,005928,005857,005466,002782,007270,005404,00370,008374,008,0062319,00895,00120,001889,005233,006839,007731,006046,0011603,003934,00689,003044,008,0061200,00959,00109,00</t>
-        </is>
+      <c r="D5" t="n">
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -558,10 +550,8 @@
       <c r="C6" t="n">
         <v>35</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1634,006492,006320,005994,003011,007711,005705,00400,008251,003,0057445,00923,00172,001712,005736,007267,008153,006550,0012539,004172,00726,003579,002,0057813,00895,00129,00</t>
-        </is>
+      <c r="D6" t="n">
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -578,10 +568,8 @@
       <c r="C7" t="n">
         <v>44</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1714,006232,006201,005803,003090,008315,005575,00352,007887,008,0060027,00929,00151,001697,005724,007483,008412,006533,0011454,004155,00648,003374,001,0059512,00962,00144,00</t>
-        </is>
+      <c r="D7" t="n">
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -598,10 +586,8 @@
       <c r="C8" t="n">
         <v>44</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3636,006443,006458,006157,003321,009022,005318,00331,007509,004,0077838,001129,00165,003578,005799,007984,007902,006220,0012215,004689,00464,004393,005,0073861,001113,00187,00</t>
-        </is>
+      <c r="D8" t="n">
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -618,10 +604,8 @@
       <c r="C9" t="n">
         <v>45</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1726,006661,006534,006423,003760,0010222,006968,00361,0010017,004,0060426,00924,00108,001657,005858,008205,008715,007139,0013066,005120,00568,005005,002,0058592,00922,00136,00</t>
-        </is>
+      <c r="D9" t="n">
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -638,10 +622,8 @@
       <c r="C10" t="n">
         <v>56</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1709,006155,006138,005756,003582,009415,006177,00270,009629,003,0061039,001013,00173,001639,005348,007373,007420,006400,0012390,005172,00320,005494,002,0059034,001171,00225,00</t>
-        </is>
+      <c r="D10" t="n">
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -658,10 +640,8 @@
       <c r="C11" t="n">
         <v>48</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1738,005910,005901,005136,004099,009422,006348,00155,008489,001,0063458,001102,00321,001701,005368,007129,006382,005816,0012540,005745,00135,005815,002,0062097,001145,00307,00</t>
-        </is>
+      <c r="D11" t="n">
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -678,10 +658,8 @@
       <c r="C12" t="n">
         <v>51</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1655,006280,006079,005182,003711,008094,005769,00141,007657,001,0059973,00639,00103,001623,005142,006762,006245,005484,0011305,004971,00153,005170,000,0059275,00647,00118,00</t>
-        </is>
+      <c r="D12" t="n">
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -698,10 +676,8 @@
       <c r="C13" t="n">
         <v>63</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1718,006212,005893,004591,004098,007265,004243,00233,005757,002,0080296,001086,00534,001775,005125,006735,005266,004943,0010126,003810,00170,004019,001,0081754,00764,00111,00</t>
-        </is>
+      <c r="D13" t="n">
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -744,13 +720,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.090506824105454</v>
+        <v>16.56791155204041</v>
       </c>
       <c r="B2" t="n">
-        <v>20.07038752720918</v>
+        <v>41.45838109959079</v>
       </c>
       <c r="C2" t="n">
-        <v>11.7006570725832</v>
+        <v>19.19185449789322</v>
       </c>
     </row>
   </sheetData>
